--- a/Scripts/parameters_output_27449.xlsx
+++ b/Scripts/parameters_output_27449.xlsx
@@ -521,7 +521,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>0.301</v>
+        <v>0.306</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -530,16 +530,16 @@
         <v>17</v>
       </c>
       <c r="G3">
-        <v>723.113822178328</v>
+        <v>721.9650296577026</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.25</v>
+        <v>1.07</v>
       </c>
       <c r="J3">
-        <v>9.013063335081483</v>
+        <v>7.756704994311917</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -585,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>0.301</v>
+        <v>0.306</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -594,16 +594,16 @@
         <v>18</v>
       </c>
       <c r="G5">
-        <v>-0.4292956203476783</v>
+        <v>-0.4314616901783138</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-0.5600000000000001</v>
+        <v>-0.53</v>
       </c>
       <c r="J5">
-        <v>0.002399528134415019</v>
+        <v>0.002289294206574255</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -649,7 +649,7 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>0.301</v>
+        <v>0.306</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -658,16 +658,16 @@
         <v>19</v>
       </c>
       <c r="G7">
-        <v>3154913.280887431</v>
+        <v>1840009.046804776</v>
       </c>
       <c r="H7">
-        <v>59757.1665413897</v>
+        <v>110084.0054635809</v>
       </c>
       <c r="I7">
-        <v>6.91</v>
+        <v>27.4</v>
       </c>
       <c r="J7">
-        <v>217914.4694546188</v>
+        <v>504209.6009530121</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -713,7 +713,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>0.301</v>
+        <v>0.306</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -722,16 +722,16 @@
         <v>20</v>
       </c>
       <c r="G9">
-        <v>1.688095114776551</v>
+        <v>1.676380872040942</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8100000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="J9">
-        <v>0.01370891410704478</v>
+        <v>0.01208779970578222</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -777,7 +777,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0.301</v>
+        <v>0.306</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -786,16 +786,16 @@
         <v>21</v>
       </c>
       <c r="G11">
-        <v>2.086644062539095e+20</v>
+        <v>1.933235329294732e+20</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>8.98</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="J11">
-        <v>1.874668108603959e+19</v>
+        <v>1.652368865119529e+19</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -841,7 +841,7 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>0.301</v>
+        <v>0.306</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -850,16 +850,16 @@
         <v>22</v>
       </c>
       <c r="G13">
-        <v>3.417254553046838e+19</v>
+        <v>3.402036750701717e+19</v>
       </c>
       <c r="H13">
-        <v>1.880837842272498e+18</v>
+        <v>1.810492405057585e+18</v>
       </c>
       <c r="I13">
-        <v>7.48</v>
+        <v>7.11</v>
       </c>
       <c r="J13">
-        <v>2.556011609317417e+18</v>
+        <v>2.418961823606644e+18</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -905,19 +905,13 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <v>0.301</v>
+        <v>0.306</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
-      </c>
-      <c r="G15">
-        <v>2.691370267038124e+19</v>
-      </c>
-      <c r="H15">
-        <v>4.08403485333187e+18</v>
       </c>
     </row>
   </sheetData>
